--- a/Input Template.xlsx
+++ b/Input Template.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Milena/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabrina\Documents\GitHub\IRP-framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94654BA-C6A9-FA45-9290-36B7D9B64546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8693389B-E052-491D-9917-E4190A137438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Schools" sheetId="1" r:id="rId1"/>
@@ -31,165 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Theresa</author>
-  </authors>
-  <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{A227CCFD-1B05-46C8-97F2-DA1C87BE66F4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Theresa:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">=RUNDEN( 4*[@[Consumption per week in mt]]+ ZUFALLSZAHL()*2*[@[Consumption per week in mt]];2)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">--&gt; UPDATE: Added a random value to achieve an average capacity of about 17 mt
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">YELLOW: Real capacities
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>RED: Real capacity = 0 ? -&gt; Changed to 2,75</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{63606806-9692-4A7E-8BB6-4234641741F9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Theresa:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>=AUFRUNDEN( [@[Consumption per week in mt]]; 2)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{CA1C4838-BB8E-41DF-92C5-A1A9CCF8CAFE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Theresa:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">=RUNDEN(  [@Lower] + [@[Consumption per week in mt]]   +ZUFALLSZAHL()*2*[@[Consumption per week in mt]];2) </t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -253,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,19 +128,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -402,204 +230,213 @@
   <dxfs count="45">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -639,6 +476,36 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -649,12 +516,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -669,159 +535,72 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -842,135 +621,6 @@
         <scheme val="minor"/>
       </font>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -980,246 +630,424 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1235,50 +1063,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0AFBE7F-EE6B-43D3-AC29-0F1EA5EDD28B}" name="Tabelle1" displayName="Tabelle1" ref="A1:K9" headerRowDxfId="0" dataDxfId="1" totalsRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0AFBE7F-EE6B-43D3-AC29-0F1EA5EDD28B}" name="Tabelle1" displayName="Tabelle1" ref="A1:K9" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="41">
   <autoFilter ref="A1:K9" xr:uid="{5BA8946D-AA97-AB4C-9BA4-2705DAEBE9BB}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{E5C5CD31-DB14-4BCA-9F11-3AA7A7551D2B}" name="Name_ID" dataDxfId="13" totalsRowDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{EB335BE7-11E3-434A-B317-30C0F850D50E}" name="Total Sum of Beneficiaries" dataDxfId="12" totalsRowDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{548C3917-F847-4593-A558-D428505FFBD5}" name="Total Sum of Commodities" dataDxfId="11" totalsRowDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{FE888112-53D5-4BA1-A73D-44D889EF4C4D}" name="Consumption per day in MT" dataDxfId="10" totalsRowDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{16626E44-7904-4057-88C7-E83A60A6E39B}" name="Consumption per week in MT" dataDxfId="9" totalsRowDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{BCB38217-DC5E-4A6B-90D0-4ED4225CA0CB}" name="Latitude" dataDxfId="8" totalsRowDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{26DFB5ED-C9CB-4B62-A8A1-67C23CE6A976}" name="Longitude" dataDxfId="7" totalsRowDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{AAB748E8-3709-4A83-AC4C-F11F31AEC3F8}" name="Capacity" dataDxfId="6" totalsRowDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{8C005587-5BD7-4A0F-A7C5-F8E1AD8666E0}" name="Lower" dataDxfId="5" totalsRowDxfId="40"/>
-    <tableColumn id="12" xr3:uid="{6E875271-034D-4F07-BB60-56AAB571D1F0}" name="Initial" dataDxfId="4" totalsRowDxfId="41"/>
-    <tableColumn id="13" xr3:uid="{D05CCBD5-F14E-46D5-BC67-17C58FC0BB3E}" name="Storage Cost" dataDxfId="3" totalsRowDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{E5C5CD31-DB14-4BCA-9F11-3AA7A7551D2B}" name="Name_ID" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{EB335BE7-11E3-434A-B317-30C0F850D50E}" name="Total Sum of Beneficiaries" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{548C3917-F847-4593-A558-D428505FFBD5}" name="Total Sum of Commodities" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{FE888112-53D5-4BA1-A73D-44D889EF4C4D}" name="Consumption per day in MT" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{16626E44-7904-4057-88C7-E83A60A6E39B}" name="Consumption per week in MT" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{BCB38217-DC5E-4A6B-90D0-4ED4225CA0CB}" name="Latitude" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{26DFB5ED-C9CB-4B62-A8A1-67C23CE6A976}" name="Longitude" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{AAB748E8-3709-4A83-AC4C-F11F31AEC3F8}" name="Capacity" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{8C005587-5BD7-4A0F-A7C5-F8E1AD8666E0}" name="Lower" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{6E875271-034D-4F07-BB60-56AAB571D1F0}" name="Initial" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{D05CCBD5-F14E-46D5-BC67-17C58FC0BB3E}" name="Storage Cost" dataDxfId="20" totalsRowDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806E747E-CCA2-4A06-99C5-B543826C2E17}" name="Tabelle2" displayName="Tabelle2" ref="A1:G5" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806E747E-CCA2-4A06-99C5-B543826C2E17}" name="Tabelle2" displayName="Tabelle2" ref="A1:G5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:G5" xr:uid="{864CDD6B-12DB-4E16-9534-F378F26389A1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{412BEF91-95C9-4F97-AB74-BDA5528E1CB3}" name="Name" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{05CA1024-D8D3-4457-9A4F-6DE1CBB47D2B}" name="Latitude" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{4C32D59A-9088-4996-B7B2-DF8A1B05203A}" name="Longitude" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{89315792-D525-46B0-A33D-3527CD856DE7}" name="Capacity" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{FAE2B975-1DB4-428D-8894-22256F93BDDE}" name="Lower" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{5412C3A0-F2C5-41BF-AB57-3DA19ECECCCE}" name="Initial" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{F795114F-5871-4C9B-A276-526B58F4F0AC}" name="Fixed Cost" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{412BEF91-95C9-4F97-AB74-BDA5528E1CB3}" name="Name" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{05CA1024-D8D3-4457-9A4F-6DE1CBB47D2B}" name="Latitude" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{4C32D59A-9088-4996-B7B2-DF8A1B05203A}" name="Longitude" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{89315792-D525-46B0-A33D-3527CD856DE7}" name="Capacity" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{FAE2B975-1DB4-428D-8894-22256F93BDDE}" name="Lower" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{5412C3A0-F2C5-41BF-AB57-3DA19ECECCCE}" name="Initial" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{F795114F-5871-4C9B-A276-526B58F4F0AC}" name="Fixed Cost" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20607441-2822-4CBC-811D-6A720D2C0079}" name="Tabelle35" displayName="Tabelle35" ref="A1:E8" totalsRowShown="0" headerRowDxfId="14" dataDxfId="15" headerRowBorderDxfId="44" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{20607441-2822-4CBC-811D-6A720D2C0079}" name="Tabelle35" displayName="Tabelle35" ref="A1:E8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="A1:E8" xr:uid="{A087B6AD-DA33-423B-AC5A-C78EC6ECE7C3}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{70E6D459-D65C-49D5-AFD8-F2C8B94F172C}" name="Warehouse" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{53F8F05A-C7EF-4F2A-9371-0AD6A3308910}" name="Plate Nr" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{D336F1A3-312C-438B-BB6E-7B78105D614F}" name="Make" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{BC7DFCB7-A6F5-467D-9332-84EA184D4680}" name="Model" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{FA060E72-4F17-4F75-A82D-558D419C0895}" name="Capacity in MT" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{70E6D459-D65C-49D5-AFD8-F2C8B94F172C}" name="Warehouse" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{53F8F05A-C7EF-4F2A-9371-0AD6A3308910}" name="Plate Nr" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{D336F1A3-312C-438B-BB6E-7B78105D614F}" name="Make" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{BC7DFCB7-A6F5-467D-9332-84EA184D4680}" name="Model" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{FA060E72-4F17-4F75-A82D-558D419C0895}" name="Capacity in MT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1580,27 +1408,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65252ADD-2539-421B-8440-8530B4AE7D99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65252ADD-2539-421B-8440-8530B4AE7D99}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="94" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="2"/>
+    <col min="1" max="1" width="11.46484375" style="2"/>
     <col min="2" max="2" width="25.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="11.5" style="2"/>
-    <col min="8" max="10" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="25.46484375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.1328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.796875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="11.46484375" style="2"/>
+    <col min="8" max="10" width="10.796875" style="4"/>
     <col min="11" max="11" width="14.6640625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="4"/>
+    <col min="12" max="16384" width="10.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1635,60 +1463,60 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1698,7 +1526,7 @@
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A2:A9">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="11">
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Non-unique Name" error="The entered name is already used for another entry. Please choose a unique name!" promptTitle="School Name or School ID" prompt="Enter a unique key of identification of the schools (e.g. name)" sqref="A2:A9" xr:uid="{3BCDFBF2-278D-3842-BBFC-44E9590EF1E9}">
@@ -1740,9 +1568,8 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1752,20 +1579,20 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="4"/>
-    <col min="4" max="4" width="13.1640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="4"/>
-    <col min="7" max="7" width="11.83203125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="4"/>
+    <col min="2" max="3" width="10.796875" style="4"/>
+    <col min="4" max="4" width="13.1328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.796875" style="4"/>
+    <col min="7" max="7" width="11.796875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1">
+    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -1788,7 +1615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1797,7 +1624,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1806,7 +1633,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1815,7 +1642,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1827,7 +1654,7 @@
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="A2:A5">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="7">
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Non-unique Name" error="The entered name is already used for another entry. Please choose a unique name!" promptTitle="Name of warehouse" prompt="Enter a unique key of identification of the warehouses (e.g. name)" sqref="A2:A5" xr:uid="{45A986A8-B101-2F43-BCA6-B7E31A49926B}">
@@ -1865,21 +1692,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537D82F5-E5C4-4F7A-919C-4E3C89A011D5}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="4"/>
-    <col min="3" max="3" width="13.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="4"/>
-    <col min="5" max="5" width="15.83203125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="12.1328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" style="4"/>
+    <col min="3" max="3" width="13.1328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" style="4"/>
+    <col min="5" max="5" width="15.796875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -1896,189 +1723,189 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>

--- a/Input Template.xlsx
+++ b/Input Template.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabrina\Documents\GitHub\IRP-framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Milena/Desktop/Uni/Master/Case studies discrete optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8693389B-E052-491D-9917-E4190A137438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAEA1F2-E77C-7A44-B015-55BD2EFE3E99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Schools" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,165 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Theresa</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{A227CCFD-1B05-46C8-97F2-DA1C87BE66F4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theresa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">=RUNDEN( 4*[@[Consumption per week in mt]]+ ZUFALLSZAHL()*2*[@[Consumption per week in mt]];2)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">--&gt; UPDATE: Added a random value to achieve an average capacity of about 17 mt
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">YELLOW: Real capacities
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>RED: Real capacity = 0 ? -&gt; Changed to 2,75</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{63606806-9692-4A7E-8BB6-4234641741F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theresa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>=AUFRUNDEN( [@[Consumption per week in mt]]; 2)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{CA1C4838-BB8E-41DF-92C5-A1A9CCF8CAFE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Theresa:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">=RUNDEN(  [@Lower] + [@[Consumption per week in mt]]   +ZUFALLSZAHL()*2*[@[Consumption per week in mt]];2) </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -94,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +287,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1408,27 +1580,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65252ADD-2539-421B-8440-8530B4AE7D99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65252ADD-2539-421B-8440-8530B4AE7D99}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.46484375" style="2"/>
+    <col min="1" max="1" width="11.5" style="2"/>
     <col min="2" max="2" width="25.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.46484375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.1328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.796875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="11.46484375" style="2"/>
-    <col min="8" max="10" width="10.796875" style="4"/>
+    <col min="3" max="3" width="25.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="11.5" style="2"/>
+    <col min="8" max="10" width="10.83203125" style="4"/>
     <col min="11" max="11" width="14.6640625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="10.796875" style="4"/>
+    <col min="12" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1463,60 +1635,60 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11">
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11">
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11">
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11">
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11">
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11">
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11">
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11">
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11">
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11">
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1532,19 +1704,6 @@
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Non-unique Name" error="The entered name is already used for another entry. Please choose a unique name!" promptTitle="School Name or School ID" prompt="Enter a unique key of identification of the schools (e.g. name)" sqref="A2:A9" xr:uid="{3BCDFBF2-278D-3842-BBFC-44E9590EF1E9}">
       <formula1>COUNTIF($A:$A,A1)=1</formula1>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Error: " error="This field takes only integer numbers." promptTitle="Number of Beneficiaries" prompt="Please enter here, how many beneficiaries are at the school." sqref="B2:B9" xr:uid="{7C7E314D-623B-0441-8872-A328660BC901}">
-      <formula1>0</formula1>
-      <formula2>100000</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" promptTitle="Sum of Commodities" sqref="C2:C9" xr:uid="{CE289BC4-0C33-5748-9AF3-D2E8C0D05411}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="You can only enter a non-negative number here." promptTitle="Daily consumption in MT" prompt="how much food is consumed at the school each day?" sqref="D2:D9" xr:uid="{D9F15B6A-513B-BE49-A7EF-4F2E8AE66EE7}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="You can only enter a non-negative number here." promptTitle="Weekly consumption in MT" prompt="how much food is consumed at the school each week?" sqref="E2:E9" xr:uid="{23EC51A3-5D4B-6842-93A2-E0EDB14F9B38}">
-      <formula1>0</formula1>
-    </dataValidation>
     <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Input" error="You are expected to enter a number between -90 and 90 to determine the location (latitude) of the school." promptTitle="Latitude of school location" prompt="At which latitude is the school located?_x000a_(-90° to 90°)" sqref="F2:F9" xr:uid="{C0B22B01-D8B6-BE47-AEBE-AAE4B92556A3}">
       <formula1>-90</formula1>
       <formula2>90</formula2>
@@ -1565,11 +1724,25 @@
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the storage costs per MT." promptTitle="Storage Costs" prompt="What are the average costs to store 1 MT of food in the school?" sqref="K2:K9" xr:uid="{FCED6474-001B-9F44-AB2B-0020AABC8589}">
       <formula1>0</formula1>
     </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="You can only enter a non-negative number here." promptTitle="Weekly consumption in MT" prompt="how much food is consumed at the school each week?_x000a_(MANDATORY)" sqref="E2:E9" xr:uid="{66C74F67-E65D-B942-A346-274F4EDCC91C}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="You can only enter a non-negative number here." promptTitle="Daily consumption in MT" prompt="how much food is consumed at the school each day?_x000a_(Optional)_x000a_" sqref="D2:D9" xr:uid="{7CA46DF4-BD3B-8443-952A-AC5B26AF0816}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" promptTitle="Sum of Commodities" prompt="(Optional)" sqref="C2:C9" xr:uid="{77C492BC-E8D2-5542-A912-4C9DE7359115}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Error: " error="This field takes only integer numbers." promptTitle="Number of Beneficiaries" prompt="Please enter here, how many beneficiaries are at the school._x000a_(Optional)" sqref="B2:B9" xr:uid="{4439FB44-E1C1-6343-A5F8-12F563E1AECD}">
+      <formula1>0</formula1>
+      <formula2>100000</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1579,20 +1752,20 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.796875" style="4"/>
-    <col min="4" max="4" width="13.1328125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="10.796875" style="4"/>
-    <col min="7" max="7" width="11.796875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.796875" style="4"/>
+    <col min="2" max="3" width="10.83203125" style="4"/>
+    <col min="4" max="4" width="13.1640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="4"/>
+    <col min="7" max="7" width="11.83203125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="9" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -1615,7 +1788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1624,7 +1797,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1633,7 +1806,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1642,7 +1815,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7">
       <c r="A5" s="5"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1656,29 +1829,52 @@
   <conditionalFormatting sqref="A2:A5">
     <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Non-unique Name" error="The entered name is already used for another entry. Please choose a unique name!" promptTitle="Name of warehouse" prompt="Enter a unique key of identification of the warehouses (e.g. name)" sqref="A2:A5" xr:uid="{45A986A8-B101-2F43-BCA6-B7E31A49926B}">
-      <formula1>COUNTIF($A:$A,A1)=1</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the fixed costs." promptTitle="Fixed Costs" prompt="What are the fixed costs to run the warehouse?" sqref="G2:G5" xr:uid="{62C25FE6-79E2-8F49-803F-DD841A95F18E}">
+  <dataValidations count="14">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Non-unique Name" error="The entered name is already used for another entry. Please choose a unique name!" promptTitle="Name of warehouse" prompt="Enter a unique key of identification of the warehouses (e.g. name)" sqref="A3:A5" xr:uid="{45A986A8-B101-2F43-BCA6-B7E31A49926B}">
+      <formula1>COUNTIF($A:$A,A2)=1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the fixed costs." promptTitle="Fixed Costs" prompt="What are the fixed costs to run the warehouse?" sqref="G3:G5" xr:uid="{62C25FE6-79E2-8F49-803F-DD841A95F18E}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the initial inventory level of the warehouse." promptTitle="Initial inventory level" prompt="Please enter the initial inventory level in MT at the warehouse, i.e. the inventory level at the time where the program shall start to suggest routes." sqref="F2:F5" xr:uid="{317CF16B-8DCE-534E-8A15-7C930050C3CA}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the initial inventory level of the warehouse." promptTitle="Initial inventory level" prompt="Please enter the initial inventory level in MT at the warehouse, i.e. the inventory level at the time where the program shall start to suggest routes." sqref="F3:F5" xr:uid="{317CF16B-8DCE-534E-8A15-7C930050C3CA}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number here in order to determine the lower treshold of the inventory." promptTitle="Lower bound on inventory " prompt="How much food do you want to be stored at that warehouse permanently, i.e. enter the lower treshold on the inventory at that warehouse_x000a_(in MT)" sqref="E2:E5" xr:uid="{3B3A050E-974A-8344-9677-199F86F68328}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number here in order to determine the lower treshold of the inventory." promptTitle="Lower bound on inventory " prompt="How much food do you want to be stored at that warehouse permanently, i.e. enter the lower treshold on the inventory at that warehouse_x000a_(in MT)" sqref="E3:E5" xr:uid="{3B3A050E-974A-8344-9677-199F86F68328}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a non-negative number to determine the storage capacity available at that warehouse." promptTitle="Storage Capacity of warehouse" prompt="how much storage capacity does the warehouse have_x000a_(in MT)?" sqref="D2:D5" xr:uid="{9CF6F1BC-3BA4-4742-8AD4-DF2C87FB3641}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a non-negative number to determine the storage capacity available at that warehouse." promptTitle="Storage Capacity of warehouse" prompt="how much storage capacity does the warehouse have_x000a_(in MT)?" sqref="D3:D5" xr:uid="{9CF6F1BC-3BA4-4742-8AD4-DF2C87FB3641}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a number between -180 and 180 to determine the degree of longitude where the warehouse is located." promptTitle="Longitude of warehouse location" prompt="At which longitude is the warehouse located?" sqref="C2:C5" xr:uid="{407AA57D-5CD3-104D-A566-CB8EC4891BCC}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a number between -180 and 180 to determine the degree of longitude where the warehouse is located." promptTitle="Longitude of warehouse location" prompt="At which longitude is the warehouse located?" sqref="C3:C5" xr:uid="{407AA57D-5CD3-104D-A566-CB8EC4891BCC}">
       <formula1>-180</formula1>
       <formula2>180</formula2>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Input" error="You are expected to enter a number between -90 and 90 to determine the location (latitude) of the warehouse." promptTitle="Latitude of warehouse location" prompt="At which latitude is the warehouse located?_x000a_(-90° to 90°)" sqref="B2:B5" xr:uid="{66D44749-37F2-D643-886B-267A5718653F}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Input" error="You are expected to enter a number between -90 and 90 to determine the location (latitude) of the warehouse." promptTitle="Latitude of warehouse location" prompt="At which latitude is the warehouse located?_x000a_(-90° to 90°)" sqref="B3:B5" xr:uid="{66D44749-37F2-D643-886B-267A5718653F}">
       <formula1>-90</formula1>
       <formula2>90</formula2>
+    </dataValidation>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Non-unique Name" error="The entered name is already used for another entry. Please choose a unique name!" promptTitle="Name of central warehouse" prompt="Enter a unique key of identification of the central warehouses (e.g. name)" sqref="A2" xr:uid="{1338C6DA-64DA-024E-BC21-64CFAB5C1585}">
+      <formula1>COUNTIF($A:$A,A1)=1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Input" error="You are expected to enter a number between -90 and 90 to determine the location (latitude) of the central warehouse." promptTitle="Latitude of central warehouse " prompt="At which latitude is the central warehouse located?_x000a_(-90° to 90°)" sqref="B2" xr:uid="{D39D9C92-5691-6C49-BEA2-8EA123436C2C}">
+      <formula1>-90</formula1>
+      <formula2>90</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a number between -180 and 180 to determine the degree of longitude where the central warehouse is located." promptTitle="Longitude of central warehouse" prompt="At which longitude is the central warehouse located?" sqref="C2" xr:uid="{AF09FDDA-7193-D548-803D-91CE1226A2D0}">
+      <formula1>-180</formula1>
+      <formula2>180</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a non-negative number to determine the storage capacity available at the central warehouse." promptTitle="Storage Capacity of central wh" prompt="how much storage capacity does the central warehouse have_x000a_(in MT)?" sqref="D2" xr:uid="{002F244C-44BB-A641-85EB-BD96805C9C1B}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number here in order to determine the lower treshold of the inventory." promptTitle="Lower bound on inventory " prompt="How much food do you want to be stored at the central warehouse permanently, i.e. enter the lower treshold on the inventory at the central warehouse_x000a_(in MT)" sqref="E2" xr:uid="{F6874F20-3005-E641-9CAC-BB37A4682BF4}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the initial inventory level of the central warehouse." promptTitle="Initial inventory level" prompt="Please enter the initial inventory level in MT at the central warehouse, i.e. the inventory level at the time where the program shall start to suggest routes." sqref="F2" xr:uid="{1D5681FA-95D4-3A4A-B9DE-78C3DE70AD66}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the fixed costs." promptTitle="Fixed Costs" prompt="What are the fixed costs to run the central warehouse?" sqref="G2" xr:uid="{CA825D8F-0EED-3042-9D59-8AA0254B41F4}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1692,21 +1888,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537D82F5-E5C4-4F7A-919C-4E3C89A011D5}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.1328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" style="4"/>
-    <col min="3" max="3" width="13.1328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" style="4"/>
-    <col min="5" max="5" width="15.796875" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="10.796875" style="4"/>
+    <col min="1" max="1" width="12.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="13.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="4"/>
+    <col min="5" max="5" width="15.83203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -1723,189 +1919,189 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
